--- a/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
+++ b/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\My Dropbox\Simpson\2014 May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\3d_graphics\source\assignments\final_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Technical</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Total for reflection</t>
+  </si>
+  <si>
+    <t>Reflection, 20 points per person</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -208,13 +217,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F53"/>
+  <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,18 +529,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -576,7 +588,7 @@
         <v>Name of person 1</v>
       </c>
       <c r="D12" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -585,7 +597,7 @@
         <v>Name of person 2</v>
       </c>
       <c r="D13" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -594,318 +606,385 @@
         <v>Name of person 3</v>
       </c>
       <c r="D14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7">
+        <f>SUM(D12:D14)</f>
+        <v>60</v>
+      </c>
+      <c r="E15" s="7">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8">
-        <f>SUM(D12:D14)</f>
-        <v>45</v>
-      </c>
-      <c r="E15" s="8">
-        <f>SUM(E12:E14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5">
+        <f>SUM(D18:D23)</f>
+        <v>60</v>
+      </c>
+      <c r="E24" s="5">
+        <f>SUM(E18:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5">
+        <f>SUM(D27:D32)</f>
+        <v>60</v>
+      </c>
+      <c r="E33" s="5">
+        <f>SUM(E27:E32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="5">
-        <f>SUM(D19:D24)</f>
-        <v>90</v>
-      </c>
-      <c r="E25" s="5">
-        <f>SUM(E19:E24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="5">
-        <f>SUM(D28:D33)</f>
-        <v>90</v>
-      </c>
-      <c r="E34" s="5">
-        <f>SUM(E28:E33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
+      <c r="D36">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="5">
+        <f>SUM(D36:D41)</f>
+        <v>60</v>
+      </c>
+      <c r="E42" s="5">
+        <f>SUM(E36:E41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="5">
-        <f>SUM(D37:D42)</f>
-        <v>90</v>
-      </c>
-      <c r="E43" s="5">
-        <f>SUM(E37:E42)</f>
-        <v>0</v>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="5">
+        <f>SUM(D45:D45)</f>
+        <v>60</v>
+      </c>
+      <c r="E46" s="5">
+        <f>SUM(E45:E45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47">
-        <f>E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f>E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49">
-        <f>E34</f>
-        <v>0</v>
-      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E50">
-        <f>E43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5">
-        <f>SUM(E47:E50)</f>
+      <c r="E51">
+        <f>E24</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <f>E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
+        <f>SUM(E50:E54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E52">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5">
-        <f>E51/E52</f>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
+        <f>E56/E57</f>
         <v>0</v>
       </c>
     </row>
@@ -913,9 +992,9 @@
   <mergeCells count="3">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
+++ b/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\3d_graphics\source\assignments\final_assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12075" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Technical</t>
   </si>
@@ -132,12 +132,15 @@
   </si>
   <si>
     <t>Reflection, 20 points per person</t>
+  </si>
+  <si>
+    <t>Write a reflection and bibliography (see assignment)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,12 +233,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -512,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +617,7 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="12" t="str">
         <f>C6</f>
         <v>Name of person 1</v>
       </c>
@@ -592,7 +626,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="12" t="str">
         <f t="shared" ref="C13:C14" si="0">C7</f>
         <v>Name of person 2</v>
       </c>
@@ -601,7 +635,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Name of person 3</v>
       </c>
@@ -875,7 +909,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>

--- a/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
+++ b/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\3d_graphics\source\assignments\final_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF7B8C-38E5-4F57-87C4-FB0DEE449570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Technical</t>
   </si>
@@ -101,12 +102,6 @@
     <t>Total for detail</t>
   </si>
   <si>
-    <t>Artistic:</t>
-  </si>
-  <si>
-    <t>In detail, list two areas of artistic efforts per person</t>
-  </si>
-  <si>
     <t>Total for artistic</t>
   </si>
   <si>
@@ -131,16 +126,31 @@
     <t>Total for reflection</t>
   </si>
   <si>
-    <t>Reflection, 20 points per person</t>
-  </si>
-  <si>
     <t>Write a reflection and bibliography (see assignment)</t>
+  </si>
+  <si>
+    <t>(Upload the reflection as a PDF or Word doc.)</t>
+  </si>
+  <si>
+    <t>Artistic messages:</t>
+  </si>
+  <si>
+    <t>DON'T put technical things.</t>
+  </si>
+  <si>
+    <t>What is the artistic message</t>
+  </si>
+  <si>
+    <t>and how was it accomplished?</t>
+  </si>
+  <si>
+    <t>In detail, list two areas of artistic efforts per person. What is the message, how was it accomplished.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -227,14 +237,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -265,7 +281,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -543,109 +559,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="49.26953125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="str">
-        <f>C6</f>
+      <c r="C12" s="10" t="str">
+        <f>C7</f>
         <v>Name of person 1</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="str">
-        <f t="shared" ref="C13:C14" si="0">C7</f>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="str">
+        <f t="shared" ref="C13:C14" si="0">C8</f>
         <v>Name of person 2</v>
       </c>
       <c r="D13" s="1">
+        <f>IF(C5&gt;1,20,"")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="str">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Name of person 3</v>
       </c>
       <c r="D14" s="1">
+        <f>IF(C5&gt;2,20,"")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
         <f>SUM(D12:D14)</f>
@@ -655,15 +681,18 @@
         <f>SUM(E12:E14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -671,10 +700,13 @@
       <c r="E17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
@@ -682,10 +714,13 @@
         <v>10</v>
       </c>
       <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
-      <c r="B19"/>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,56 +728,67 @@
         <v>10</v>
       </c>
       <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D20">
+        <f>IF($C$5&gt;1,10,"")</f>
         <v>10</v>
       </c>
       <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D21">
+        <f>IF($C$5&gt;1,10,"")</f>
         <v>10</v>
       </c>
       <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D22">
+        <f>IF($C$5&gt;2,10,"")</f>
         <v>10</v>
       </c>
       <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D23">
+        <f>IF($C$5&gt;2,10,"")</f>
         <v>10</v>
       </c>
       <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="5">
         <f>SUM(D18:D23)</f>
@@ -752,9 +798,12 @@
         <f>SUM(E18:E23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -768,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
@@ -776,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
@@ -784,39 +833,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;1,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;1,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;2,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;2,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
@@ -829,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>22</v>
       </c>
@@ -843,7 +896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
@@ -851,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
@@ -859,39 +912,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;1,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;1,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;2,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <f>IF($C$5&gt;2,10,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C42" s="5" t="s">
         <v>24</v>
       </c>
@@ -904,12 +961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -918,17 +975,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45">
+        <f>20*C5</f>
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C46" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="5">
         <f>SUM(D45:D45)</f>
@@ -939,14 +997,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50" s="3" t="s">
         <v>20</v>
       </c>
@@ -955,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51" s="3" t="s">
         <v>6</v>
       </c>
@@ -964,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C52" s="3" t="s">
         <v>0</v>
       </c>
@@ -973,30 +1031,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C53" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <f>E42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C54" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <f>E46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C56" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5">
@@ -1004,17 +1062,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="4">
+        <f>C5</f>
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C58" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5">

--- a/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
+++ b/source/assignments/final_assignment/CIS_Final_Project_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\3d_graphics\source\assignments\final_assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\projects\3d_graphics_class\source\assignments\final_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF7B8C-38E5-4F57-87C4-FB0DEE449570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B398B-DD20-40C5-93A6-128C73317D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -144,7 +154,7 @@
     <t>and how was it accomplished?</t>
   </si>
   <si>
-    <t>In detail, list two areas of artistic efforts per person. What is the message, how was it accomplished.</t>
+    <t>In detail, list two areas of artistic messages per person. What is the message, how was it accomplished.</t>
   </si>
 </sst>
 </file>
@@ -566,20 +576,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="49.26953125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="49.21875" style="9" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
@@ -587,13 +597,13 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -604,7 +614,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -612,20 +622,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>14</v>
       </c>
@@ -634,7 +644,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -647,7 +657,7 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="str">
         <f t="shared" ref="C13:C14" si="0">C8</f>
         <v>Name of person 2</v>
@@ -658,7 +668,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Name of person 3</v>
@@ -669,7 +679,7 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
@@ -683,10 +693,10 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>35</v>
@@ -702,7 +712,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>36</v>
@@ -716,7 +726,7 @@
       <c r="E18"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19" t="s">
         <v>37</v>
@@ -730,7 +740,7 @@
       <c r="E19"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>38</v>
@@ -745,7 +755,7 @@
       <c r="E20"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="4" t="s">
@@ -758,7 +768,7 @@
       <c r="E21"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="4" t="s">
@@ -771,7 +781,7 @@
       <c r="E22"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="4" t="s">
@@ -784,7 +794,7 @@
       <c r="E23"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" s="5" t="s">
@@ -800,10 +810,10 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -817,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
@@ -825,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
@@ -842,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
@@ -851,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
@@ -860,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>10</v>
       </c>
@@ -869,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
@@ -882,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>22</v>
       </c>
@@ -896,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
@@ -904,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
@@ -912,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
@@ -921,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
@@ -930,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
@@ -939,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
@@ -948,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C42" s="5" t="s">
         <v>24</v>
       </c>
@@ -961,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>31</v>
       </c>
@@ -975,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>34</v>
       </c>
@@ -984,7 +994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
         <v>32</v>
       </c>
@@ -997,14 +1007,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="3" t="s">
         <v>20</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="3" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
@@ -1040,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" s="3" t="s">
         <v>31</v>
       </c>
@@ -1049,10 +1059,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" s="8" t="s">
         <v>27</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" s="8" t="s">
         <v>29</v>
       </c>
